--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3038.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3038.xlsx
@@ -351,13 +351,13 @@
         <v>1.085315056777929</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.106993001150665</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3038.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3038.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.085315056777929</v>
+        <v>0.5196889042854309</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.399427652359009</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.187565326690674</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.565920829772949</v>
       </c>
       <c r="E1">
-        <v>1.106993001150665</v>
+        <v>0.900866687297821</v>
       </c>
     </row>
   </sheetData>
